--- a/опт и Краснодар/2024/01,24/22,01,24 Сочи КИ/дв 22,01,24 счрсч от филиала.xlsx
+++ b/опт и Краснодар/2024/01,24/22,01,24 Сочи КИ/дв 22,01,24 счрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\22,01,24 Сочи КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2024\01,24\22,01,24 Сочи КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6137767A-A9DB-4380-8098-B714DD569AF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C6138-1D39-4BD0-8FA1-AFF7A9ECAD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
   <si>
     <t>Период: 15.01.2024 - 22.01.2024</t>
   </si>
@@ -396,6 +396,12 @@
   <si>
     <t>заказ</t>
   </si>
+  <si>
+    <t>метка</t>
+  </si>
+  <si>
+    <t>25,01,</t>
+  </si>
 </sst>
 </file>
 
@@ -6582,8 +6588,8 @@
   <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
+      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6592,10 +6598,10 @@
     <col min="2" max="2" width="4.1640625" style="1" customWidth="1"/>
     <col min="3" max="6" width="6.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="7.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" style="2" customWidth="1"/>
-    <col min="12" max="16" width="7.83203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="5.33203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7" style="2" customWidth="1"/>
+    <col min="13" max="16" width="7.83203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="36.5" style="2" customWidth="1"/>
     <col min="18" max="19" width="5.1640625" style="2" customWidth="1"/>
     <col min="20" max="22" width="7.6640625" style="2" customWidth="1"/>
@@ -6632,14 +6638,14 @@
       <c r="H3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>92</v>
@@ -6704,17 +6710,19 @@
       <c r="H4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
         <v>105</v>
       </c>
       <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="O4" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="P4" s="14" t="s">
         <v>101</v>
       </c>
@@ -6750,21 +6758,18 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="17">
-        <f t="shared" ref="I5:P5" si="0">SUM(I6:I206)</f>
+      <c r="I5" s="11"/>
+      <c r="J5" s="17">
+        <f t="shared" ref="J5:P5" si="0">SUM(J6:J206)</f>
         <v>3482.1530000000002</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K5" s="17">
         <f t="shared" si="0"/>
         <v>-792.58799999999985</v>
       </c>
-      <c r="K5" s="17">
+      <c r="L5" s="17">
         <f t="shared" si="0"/>
         <v>5242.6975999999995</v>
-      </c>
-      <c r="L5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="M5" s="17">
         <f t="shared" si="0"/>
@@ -6828,15 +6833,15 @@
         <f>VLOOKUP(A6,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f>VLOOKUP(A6,[2]TDSheet!$A:$Q,4,0)</f>
         <v>3.9</v>
       </c>
-      <c r="J6" s="2">
-        <f>E6-I6</f>
+      <c r="K6" s="2">
+        <f>E6-J6</f>
         <v>0.3400000000000003</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <f>VLOOKUP(A6,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
@@ -6851,11 +6856,11 @@
       </c>
       <c r="P6" s="22"/>
       <c r="R6" s="2">
-        <f>(F6+K6+O6)/M6</f>
+        <f>(F6+L6+O6)/M6</f>
         <v>38.637971698113205</v>
       </c>
       <c r="S6" s="2">
-        <f>(F6+K6)/M6</f>
+        <f>(F6+L6)/M6</f>
         <v>38.637971698113205</v>
       </c>
       <c r="T6" s="2">
@@ -6906,39 +6911,39 @@
         <f>VLOOKUP(A7,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f>VLOOKUP(A7,[2]TDSheet!$A:$Q,4,0)</f>
         <v>34.4</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:J70" si="1">E7-I7</f>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K70" si="1">E7-J7</f>
         <v>-3.759999999999998</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <f>VLOOKUP(A7,[1]TDSheet!$A:$O,15,0)</f>
         <v>15</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" ref="M7:M70" si="2">E7/5</f>
+        <f>E7/5</f>
         <v>6.1280000000000001</v>
       </c>
       <c r="N7" s="22">
-        <f t="shared" ref="N7:N31" si="3">13*M7-K7-F7</f>
+        <f>13*M7-L7-F7</f>
         <v>31.892000000000003</v>
       </c>
       <c r="O7" s="22">
-        <f t="shared" ref="O7:O70" si="4">N7</f>
+        <f t="shared" ref="O7:O70" si="2">N7</f>
         <v>31.892000000000003</v>
       </c>
       <c r="P7" s="22">
         <v>32</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" ref="R7:R70" si="5">(F7+K7+O7)/M7</f>
+        <f>(F7+L7+O7)/M7</f>
         <v>13</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" ref="S7:S70" si="6">(F7+K7)/M7</f>
+        <f>(F7+L7)/M7</f>
         <v>7.7956919060052217</v>
       </c>
       <c r="T7" s="2">
@@ -6954,7 +6959,7 @@
         <v>3.8124000000000002</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" ref="X7:X70" si="7">O7*G7</f>
+        <f>O7*G7</f>
         <v>31.892000000000003</v>
       </c>
     </row>
@@ -6981,38 +6986,38 @@
         <f>VLOOKUP(A8,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f>VLOOKUP(A8,[2]TDSheet!$A:$Q,4,0)</f>
         <v>5.2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>0.47499999999999964</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <f>VLOOKUP(A8,[1]TDSheet!$A:$O,15,0)</f>
         <v>8</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="2"/>
+        <f>E8/5</f>
         <v>1.135</v>
       </c>
       <c r="N8" s="22">
         <v>10</v>
       </c>
       <c r="O8" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P8" s="22">
         <v>10</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="5"/>
+        <f>(F8+L8+O8)/M8</f>
         <v>15.859030837004406</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="6"/>
+        <f>(F8+L8)/M8</f>
         <v>7.0484581497797354</v>
       </c>
       <c r="T8" s="2">
@@ -7028,7 +7033,7 @@
         <v>7.6781999999999995</v>
       </c>
       <c r="X8" s="2">
-        <f t="shared" si="7"/>
+        <f>O8*G8</f>
         <v>10</v>
       </c>
     </row>
@@ -7059,38 +7064,38 @@
         <f>VLOOKUP(A9,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <f>VLOOKUP(A9,[2]TDSheet!$A:$Q,4,0)</f>
         <v>78</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>-16</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <f>VLOOKUP(A9,[1]TDSheet!$A:$O,15,0)</f>
         <v>121</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="2"/>
+        <f>E9/5</f>
         <v>12.4</v>
       </c>
       <c r="N9" s="22">
         <v>60</v>
       </c>
       <c r="O9" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="P9" s="22">
         <v>100</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="5"/>
+        <f>(F9+L9+O9)/M9</f>
         <v>13.79032258064516</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="6"/>
+        <f>(F9+L9)/M9</f>
         <v>8.9516129032258061</v>
       </c>
       <c r="T9" s="2">
@@ -7106,7 +7111,7 @@
         <v>17.2</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="7"/>
+        <f>O9*G9</f>
         <v>30</v>
       </c>
     </row>
@@ -7135,20 +7140,20 @@
         <f>VLOOKUP(A10,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <f>VLOOKUP(A10,[2]TDSheet!$A:$Q,4,0)</f>
         <v>149</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>-62</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <f>VLOOKUP(A10,[1]TDSheet!$A:$O,15,0)</f>
         <v>450</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="2"/>
+        <f>E10/5</f>
         <v>17.399999999999999</v>
       </c>
       <c r="N10" s="29">
@@ -7164,11 +7169,11 @@
         <v>118</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="5"/>
+        <f>(F10+L10+O10)/M10</f>
         <v>40.229885057471265</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="6"/>
+        <f>(F10+L10)/M10</f>
         <v>25.862068965517242</v>
       </c>
       <c r="T10" s="2">
@@ -7184,7 +7189,7 @@
         <v>57.2</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="7"/>
+        <f>O10*G10</f>
         <v>100</v>
       </c>
     </row>
@@ -7213,20 +7218,20 @@
         <f>VLOOKUP(A11,[1]TDSheet!$A:$H,8,0)</f>
         <v>31</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <f>VLOOKUP(A11,[2]TDSheet!$A:$Q,4,0)</f>
         <v>2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <f>VLOOKUP(A11,[1]TDSheet!$A:$O,15,0)</f>
         <v>6</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="2"/>
+        <f>E11/5</f>
         <v>-0.8</v>
       </c>
       <c r="N11" s="29">
@@ -7239,11 +7244,11 @@
         <v>6</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="5"/>
+        <f>(F11+L11+O11)/M11</f>
         <v>-15</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="6"/>
+        <f>(F11+L11)/M11</f>
         <v>-7.5</v>
       </c>
       <c r="T11" s="2">
@@ -7259,7 +7264,7 @@
         <v>6.6</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="7"/>
+        <f>O11*G11</f>
         <v>3</v>
       </c>
     </row>
@@ -7288,20 +7293,20 @@
         <f>VLOOKUP(A12,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <f>VLOOKUP(A12,[2]TDSheet!$A:$Q,4,0)</f>
         <v>100</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>-57</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <f>VLOOKUP(A12,[1]TDSheet!$A:$O,15,0)</f>
         <v>350</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="2"/>
+        <f>E12/5</f>
         <v>8.6</v>
       </c>
       <c r="N12" s="29">
@@ -7317,11 +7322,11 @@
         <v>118</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="5"/>
+        <f>(F12+L12+O12)/M12</f>
         <v>63.953488372093027</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="6"/>
+        <f>(F12+L12)/M12</f>
         <v>40.697674418604656</v>
       </c>
       <c r="T12" s="2">
@@ -7337,7 +7342,7 @@
         <v>47.8</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="7"/>
+        <f>O12*G12</f>
         <v>90</v>
       </c>
     </row>
@@ -7366,20 +7371,20 @@
         <f>VLOOKUP(A13,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <f>VLOOKUP(A13,[2]TDSheet!$A:$Q,4,0)</f>
         <v>121</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
         <v>-79</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <f>VLOOKUP(A13,[1]TDSheet!$A:$O,15,0)</f>
         <v>250</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="2"/>
+        <f>E13/5</f>
         <v>8.4</v>
       </c>
       <c r="N13" s="29">
@@ -7395,11 +7400,11 @@
         <v>118</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="5"/>
+        <f>(F13+L13+O13)/M13</f>
         <v>53.571428571428569</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="6"/>
+        <f>(F13+L13)/M13</f>
         <v>29.761904761904759</v>
       </c>
       <c r="T13" s="2">
@@ -7415,7 +7420,7 @@
         <v>26.2</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="7"/>
+        <f>O13*G13</f>
         <v>90</v>
       </c>
     </row>
@@ -7442,38 +7447,38 @@
         <f>VLOOKUP(A14,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <f>VLOOKUP(A14,[2]TDSheet!$A:$Q,4,0)</f>
         <v>14</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <f>VLOOKUP(A14,[1]TDSheet!$A:$O,15,0)</f>
         <v>12</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="2"/>
+        <f>E14/5</f>
         <v>1.8</v>
       </c>
       <c r="N14" s="22">
         <v>15</v>
       </c>
       <c r="O14" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P14" s="22">
         <v>25</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="5"/>
+        <f>(F14+L14+O14)/M14</f>
         <v>15</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="6"/>
+        <f>(F14+L14)/M14</f>
         <v>6.6666666666666661</v>
       </c>
       <c r="T14" s="2">
@@ -7489,7 +7494,7 @@
         <v>15.6</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="7"/>
+        <f>O14*G14</f>
         <v>7.5</v>
       </c>
     </row>
@@ -7520,34 +7525,34 @@
         <f>VLOOKUP(A15,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <f>VLOOKUP(A15,[2]TDSheet!$A:$Q,4,0)</f>
         <v>9</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <f>VLOOKUP(A15,[1]TDSheet!$A:$O,15,0)</f>
         <v>40</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="2"/>
+        <f>E15/5</f>
         <v>1</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15" s="22"/>
       <c r="R15" s="2">
-        <f t="shared" si="5"/>
+        <f>(F15+L15+O15)/M15</f>
         <v>77</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="6"/>
+        <f>(F15+L15)/M15</f>
         <v>77</v>
       </c>
       <c r="T15" s="2">
@@ -7566,7 +7571,7 @@
         <v>109</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="7"/>
+        <f>O15*G15</f>
         <v>0</v>
       </c>
     </row>
@@ -7595,34 +7600,34 @@
         <f>VLOOKUP(A16,[1]TDSheet!$A:$H,8,0)</f>
         <v>180</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <f>VLOOKUP(A16,[2]TDSheet!$A:$Q,4,0)</f>
         <v>14</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <f>VLOOKUP(A16,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="2"/>
+        <f>E16/5</f>
         <v>2.8</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P16" s="22"/>
       <c r="R16" s="2">
-        <f t="shared" si="5"/>
+        <f>(F16+L16+O16)/M16</f>
         <v>33.571428571428577</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="6"/>
+        <f>(F16+L16)/M16</f>
         <v>33.571428571428577</v>
       </c>
       <c r="T16" s="2">
@@ -7642,7 +7647,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="7"/>
+        <f>O16*G16</f>
         <v>0</v>
       </c>
     </row>
@@ -7671,34 +7676,34 @@
         <f>VLOOKUP(A17,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <f>VLOOKUP(A17,[2]TDSheet!$A:$Q,4,0)</f>
         <v>4</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <f>VLOOKUP(A17,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="2"/>
+        <f>E17/5</f>
         <v>0.2</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P17" s="22"/>
       <c r="R17" s="2">
-        <f t="shared" si="5"/>
+        <f>(F17+L17+O17)/M17</f>
         <v>30</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="6"/>
+        <f>(F17+L17)/M17</f>
         <v>30</v>
       </c>
       <c r="T17" s="2">
@@ -7714,7 +7719,7 @@
         <v>0.8</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="7"/>
+        <f>O17*G17</f>
         <v>0</v>
       </c>
     </row>
@@ -7743,34 +7748,34 @@
         <f>VLOOKUP(A18,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <f>VLOOKUP(A18,[2]TDSheet!$A:$Q,4,0)</f>
         <v>3</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <f>VLOOKUP(A18,[1]TDSheet!$A:$O,15,0)</f>
         <v>42</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="2"/>
+        <f>E18/5</f>
         <v>-0.2</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P18" s="22"/>
       <c r="R18" s="2">
-        <f t="shared" si="5"/>
+        <f>(F18+L18+O18)/M18</f>
         <v>-425</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="6"/>
+        <f>(F18+L18)/M18</f>
         <v>-425</v>
       </c>
       <c r="T18" s="2">
@@ -7789,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="7"/>
+        <f>O18*G18</f>
         <v>0</v>
       </c>
     </row>
@@ -7822,34 +7827,34 @@
         <f>VLOOKUP(A19,[1]TDSheet!$A:$H,8,0)</f>
         <v>60</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <f>VLOOKUP(A19,[2]TDSheet!$A:$Q,4,0)</f>
         <v>13</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <f>VLOOKUP(A19,[1]TDSheet!$A:$O,15,0)</f>
         <v>120</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="2"/>
+        <f>E19/5</f>
         <v>10</v>
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P19" s="22"/>
       <c r="R19" s="2">
-        <f t="shared" si="5"/>
+        <f>(F19+L19+O19)/M19</f>
         <v>24.5</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="6"/>
+        <f>(F19+L19)/M19</f>
         <v>24.5</v>
       </c>
       <c r="T19" s="2">
@@ -7865,7 +7870,7 @@
         <v>22</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="7"/>
+        <f>O19*G19</f>
         <v>0</v>
       </c>
     </row>
@@ -7896,34 +7901,34 @@
         <f>VLOOKUP(A20,[1]TDSheet!$A:$H,8,0)</f>
         <v>55</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <f>VLOOKUP(A20,[2]TDSheet!$A:$Q,4,0)</f>
         <v>6</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <f>VLOOKUP(A20,[1]TDSheet!$A:$O,15,0)</f>
         <v>30</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="2"/>
+        <f>E20/5</f>
         <v>0.8</v>
       </c>
       <c r="N20" s="22"/>
       <c r="O20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P20" s="22"/>
       <c r="R20" s="2">
-        <f t="shared" si="5"/>
+        <f>(F20+L20+O20)/M20</f>
         <v>57.5</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="6"/>
+        <f>(F20+L20)/M20</f>
         <v>57.5</v>
       </c>
       <c r="T20" s="2">
@@ -7939,7 +7944,7 @@
         <v>9</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="7"/>
+        <f>O20*G20</f>
         <v>0</v>
       </c>
     </row>
@@ -7968,39 +7973,39 @@
         <f>VLOOKUP(A21,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <f>VLOOKUP(A21,[2]TDSheet!$A:$Q,4,0)</f>
         <v>20</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <f>VLOOKUP(A21,[1]TDSheet!$A:$O,15,0)</f>
         <v>3.2000000000000028</v>
       </c>
       <c r="M21" s="2">
+        <f>E21/5</f>
+        <v>3.2</v>
+      </c>
+      <c r="N21" s="22">
+        <f>13*M21-L21-F21</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O21" s="22">
         <f t="shared" si="2"/>
-        <v>3.2</v>
-      </c>
-      <c r="N21" s="22">
-        <f t="shared" si="3"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="O21" s="22">
-        <f t="shared" si="4"/>
         <v>14.399999999999999</v>
       </c>
       <c r="P21" s="22">
         <v>14</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="5"/>
+        <f>(F21+L21+O21)/M21</f>
         <v>13</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="6"/>
+        <f>(F21+L21)/M21</f>
         <v>8.5</v>
       </c>
       <c r="T21" s="2">
@@ -8016,7 +8021,7 @@
         <v>3.6</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="7"/>
+        <f>O21*G21</f>
         <v>4.3199999999999994</v>
       </c>
     </row>
@@ -8045,34 +8050,34 @@
         <f>VLOOKUP(A22,[1]TDSheet!$A:$H,8,0)</f>
         <v>60</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <f>VLOOKUP(A22,[2]TDSheet!$A:$Q,4,0)</f>
         <v>9</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <f>VLOOKUP(A22,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="2"/>
+        <f>E22/5</f>
         <v>1.4</v>
       </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P22" s="22"/>
       <c r="R22" s="2">
-        <f t="shared" si="5"/>
+        <f>(F22+L22+O22)/M22</f>
         <v>58.571428571428577</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="6"/>
+        <f>(F22+L22)/M22</f>
         <v>58.571428571428577</v>
       </c>
       <c r="T22" s="2">
@@ -8092,7 +8097,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="7"/>
+        <f>O22*G22</f>
         <v>0</v>
       </c>
     </row>
@@ -8123,39 +8128,39 @@
         <f>VLOOKUP(A23,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <f>VLOOKUP(A23,[2]TDSheet!$A:$Q,4,0)</f>
         <v>79</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <f t="shared" si="1"/>
         <v>-21</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <f>VLOOKUP(A23,[1]TDSheet!$A:$O,15,0)</f>
         <v>60</v>
       </c>
       <c r="M23" s="2">
+        <f>E23/5</f>
+        <v>11.6</v>
+      </c>
+      <c r="N23" s="22">
+        <f>14*M23-L23-F23</f>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="O23" s="22">
         <f t="shared" si="2"/>
-        <v>11.6</v>
-      </c>
-      <c r="N23" s="22">
-        <f>14*M23-K23-F23</f>
-        <v>79.400000000000006</v>
-      </c>
-      <c r="O23" s="22">
-        <f t="shared" si="4"/>
         <v>79.400000000000006</v>
       </c>
       <c r="P23" s="22">
         <v>79</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="5"/>
+        <f>(F23+L23+O23)/M23</f>
         <v>14.000000000000002</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="6"/>
+        <f>(F23+L23)/M23</f>
         <v>7.1551724137931041</v>
       </c>
       <c r="T23" s="2">
@@ -8171,7 +8176,7 @@
         <v>29.2</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="7"/>
+        <f>O23*G23</f>
         <v>27.79</v>
       </c>
     </row>
@@ -8202,34 +8207,34 @@
         <f>VLOOKUP(A24,[1]TDSheet!$A:$H,8,0)</f>
         <v>120</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <f>VLOOKUP(A24,[2]TDSheet!$A:$Q,4,0)</f>
         <v>32</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <f>VLOOKUP(A24,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="2"/>
+        <f>E24/5</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P24" s="22"/>
       <c r="R24" s="2">
-        <f t="shared" si="5"/>
+        <f>(F24+L24+O24)/M24</f>
         <v>19.09090909090909</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="6"/>
+        <f>(F24+L24)/M24</f>
         <v>19.09090909090909</v>
       </c>
       <c r="T24" s="2">
@@ -8249,7 +8254,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="7"/>
+        <f>O24*G24</f>
         <v>0</v>
       </c>
     </row>
@@ -8278,38 +8283,38 @@
         <f>VLOOKUP(A25,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <f>VLOOKUP(A25,[2]TDSheet!$A:$Q,4,0)</f>
         <v>9</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <f>VLOOKUP(A25,[1]TDSheet!$A:$O,15,0)</f>
         <v>12</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="2"/>
+        <f>E25/5</f>
         <v>-0.6</v>
       </c>
       <c r="N25" s="29">
         <v>12</v>
       </c>
       <c r="O25" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="P25" s="22">
         <v>12</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="5"/>
+        <f>(F25+L25+O25)/M25</f>
         <v>-40</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="6"/>
+        <f>(F25+L25)/M25</f>
         <v>-20</v>
       </c>
       <c r="T25" s="2">
@@ -8325,7 +8330,7 @@
         <v>11.2</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="7"/>
+        <f>O25*G25</f>
         <v>4.5600000000000005</v>
       </c>
     </row>
@@ -8356,39 +8361,39 @@
         <f>VLOOKUP(A26,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <f>VLOOKUP(A26,[2]TDSheet!$A:$Q,4,0)</f>
         <v>177</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <f t="shared" si="1"/>
         <v>-14</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <f>VLOOKUP(A26,[1]TDSheet!$A:$O,15,0)</f>
         <v>316.39999999999998</v>
       </c>
       <c r="M26" s="2">
+        <f>E26/5</f>
+        <v>32.6</v>
+      </c>
+      <c r="N26" s="22">
+        <f>14*M26-L26-F26</f>
+        <v>127.00000000000006</v>
+      </c>
+      <c r="O26" s="22">
         <f t="shared" si="2"/>
-        <v>32.6</v>
-      </c>
-      <c r="N26" s="22">
-        <f>14*M26-K26-F26</f>
-        <v>127.00000000000006</v>
-      </c>
-      <c r="O26" s="22">
-        <f t="shared" si="4"/>
         <v>127.00000000000006</v>
       </c>
       <c r="P26" s="22">
         <v>127</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="5"/>
+        <f>(F26+L26+O26)/M26</f>
         <v>14</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="6"/>
+        <f>(F26+L26)/M26</f>
         <v>10.104294478527606</v>
       </c>
       <c r="T26" s="2">
@@ -8404,7 +8409,7 @@
         <v>44.4</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="7"/>
+        <f>O26*G26</f>
         <v>44.450000000000017</v>
       </c>
     </row>
@@ -8433,20 +8438,20 @@
         <f>VLOOKUP(A27,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <f>VLOOKUP(A27,[2]TDSheet!$A:$Q,4,0)</f>
         <v>94</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <f t="shared" si="1"/>
         <v>-24</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <f>VLOOKUP(A27,[1]TDSheet!$A:$O,15,0)</f>
         <v>200</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="2"/>
+        <f>E27/5</f>
         <v>14</v>
       </c>
       <c r="N27" s="29">
@@ -8462,11 +8467,11 @@
         <v>118</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="5"/>
+        <f>(F27+L27+O27)/M27</f>
         <v>23.428571428571427</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="6"/>
+        <f>(F27+L27)/M27</f>
         <v>14.5</v>
       </c>
       <c r="T27" s="2">
@@ -8482,7 +8487,7 @@
         <v>24.4</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="7"/>
+        <f>O27*G27</f>
         <v>75</v>
       </c>
     </row>
@@ -8513,25 +8518,25 @@
         <f>VLOOKUP(A28,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <f>VLOOKUP(A28,[2]TDSheet!$A:$Q,4,0)</f>
         <v>35</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <f>VLOOKUP(A28,[1]TDSheet!$A:$O,15,0)</f>
         <v>72</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="2"/>
+        <f>E28/5</f>
         <v>3.4</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P28" s="22">
@@ -8541,11 +8546,11 @@
         <v>118</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="5"/>
+        <f>(F28+L28+O28)/M28</f>
         <v>32.647058823529413</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="6"/>
+        <f>(F28+L28)/M28</f>
         <v>32.647058823529413</v>
       </c>
       <c r="T28" s="2">
@@ -8561,7 +8566,7 @@
         <v>29.2</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="7"/>
+        <f>O28*G28</f>
         <v>0</v>
       </c>
     </row>
@@ -8592,25 +8597,25 @@
         <f>VLOOKUP(A29,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <f>VLOOKUP(A29,[2]TDSheet!$A:$Q,4,0)</f>
         <v>38</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <f t="shared" si="1"/>
         <v>-22</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <f>VLOOKUP(A29,[1]TDSheet!$A:$O,15,0)</f>
         <v>72</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="2"/>
+        <f>E29/5</f>
         <v>3.2</v>
       </c>
       <c r="N29" s="22"/>
       <c r="O29" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P29" s="22">
@@ -8620,11 +8625,11 @@
         <v>118</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="5"/>
+        <f>(F29+L29+O29)/M29</f>
         <v>38.4375</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="6"/>
+        <f>(F29+L29)/M29</f>
         <v>38.4375</v>
       </c>
       <c r="T29" s="2">
@@ -8640,7 +8645,7 @@
         <v>22.2</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="7"/>
+        <f>O29*G29</f>
         <v>0</v>
       </c>
     </row>
@@ -8669,34 +8674,34 @@
         <f>VLOOKUP(A30,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <f>VLOOKUP(A30,[2]TDSheet!$A:$Q,4,0)</f>
         <v>24</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <f t="shared" si="1"/>
         <v>-17</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <f>VLOOKUP(A30,[1]TDSheet!$A:$O,15,0)</f>
         <v>72</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="2"/>
+        <f>E30/5</f>
         <v>1.4</v>
       </c>
       <c r="N30" s="22"/>
       <c r="O30" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P30" s="22"/>
       <c r="R30" s="2">
-        <f t="shared" si="5"/>
+        <f>(F30+L30+O30)/M30</f>
         <v>51.428571428571431</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="6"/>
+        <f>(F30+L30)/M30</f>
         <v>51.428571428571431</v>
       </c>
       <c r="T30" s="2">
@@ -8712,7 +8717,7 @@
         <v>22.2</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="7"/>
+        <f>O30*G30</f>
         <v>0</v>
       </c>
     </row>
@@ -8743,24 +8748,24 @@
         <f>VLOOKUP(A31,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <f>VLOOKUP(A31,[2]TDSheet!$A:$Q,4,0)</f>
         <v>217.5</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <f t="shared" si="1"/>
         <v>-1.1399999999999864</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <f>VLOOKUP(A31,[1]TDSheet!$A:$O,15,0)</f>
         <v>150</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="2"/>
+        <f>E31/5</f>
         <v>43.272000000000006</v>
       </c>
       <c r="N31" s="22">
-        <f t="shared" si="3"/>
+        <f>13*M31-L31-F31</f>
         <v>378.28600000000006</v>
       </c>
       <c r="O31" s="22">
@@ -8770,11 +8775,11 @@
         <v>150</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="5"/>
+        <f>(F31+L31+O31)/M31</f>
         <v>7.7243945276391193</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="6"/>
+        <f>(F31+L31)/M31</f>
         <v>4.2579497134405617</v>
       </c>
       <c r="T31" s="2">
@@ -8790,7 +8795,7 @@
         <v>18.472000000000001</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" si="7"/>
+        <f>O31*G31</f>
         <v>150</v>
       </c>
     </row>
@@ -8819,34 +8824,34 @@
         <f>VLOOKUP(A32,[1]TDSheet!$A:$H,8,0)</f>
         <v>180</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <f>VLOOKUP(A32,[2]TDSheet!$A:$Q,4,0)</f>
         <v>0.38</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <f t="shared" si="1"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <f>VLOOKUP(A32,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="2"/>
+        <f>E32/5</f>
         <v>7.8E-2</v>
       </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P32" s="22"/>
       <c r="R32" s="2">
-        <f t="shared" si="5"/>
+        <f>(F32+L32+O32)/M32</f>
         <v>163.7820512820513</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="6"/>
+        <f>(F32+L32)/M32</f>
         <v>163.7820512820513</v>
       </c>
       <c r="T32" s="2">
@@ -8866,7 +8871,7 @@
         <v>то же что и 226</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="7"/>
+        <f>O32*G32</f>
         <v>0</v>
       </c>
     </row>
@@ -8897,34 +8902,34 @@
         <f>VLOOKUP(A33,[1]TDSheet!$A:$H,8,0)</f>
         <v>60</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <f>VLOOKUP(A33,[2]TDSheet!$A:$Q,4,0)</f>
         <v>150.69999999999999</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <f t="shared" si="1"/>
         <v>-5.4499999999999886</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <f>VLOOKUP(A33,[1]TDSheet!$A:$O,15,0)</f>
         <v>250</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="2"/>
+        <f>E33/5</f>
         <v>29.05</v>
       </c>
       <c r="N33" s="22"/>
       <c r="O33" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P33" s="22"/>
       <c r="R33" s="2">
-        <f t="shared" si="5"/>
+        <f>(F33+L33+O33)/M33</f>
         <v>21.075215146299485</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="6"/>
+        <f>(F33+L33)/M33</f>
         <v>21.075215146299485</v>
       </c>
       <c r="T33" s="2">
@@ -8940,7 +8945,7 @@
         <v>20.193999999999999</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="7"/>
+        <f>O33*G33</f>
         <v>0</v>
       </c>
     </row>
@@ -8968,30 +8973,30 @@
         <f>VLOOKUP(A34,[1]TDSheet!$A:$H,8,0)</f>
         <v>180</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <f>VLOOKUP(A34,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="2"/>
+        <f>E34/5</f>
         <v>0</v>
       </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P34" s="22"/>
       <c r="R34" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>(F34+L34+O34)/M34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>(F34+L34)/M34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="2">
@@ -9011,7 +9016,7 @@
         <v>то же что и 207/ необходимо увеличить продажи</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="7"/>
+        <f>O34*G34</f>
         <v>0</v>
       </c>
     </row>
@@ -9040,34 +9045,34 @@
         <f>VLOOKUP(A35,[1]TDSheet!$A:$H,8,0)</f>
         <v>60</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <f>VLOOKUP(A35,[2]TDSheet!$A:$Q,4,0)</f>
         <v>20</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <f t="shared" si="1"/>
         <v>-2.9250000000000007</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <f>VLOOKUP(A35,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="2"/>
+        <f>E35/5</f>
         <v>3.415</v>
       </c>
       <c r="N35" s="22"/>
       <c r="O35" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P35" s="22"/>
       <c r="R35" s="2">
-        <f t="shared" si="5"/>
+        <f>(F35+L35+O35)/M35</f>
         <v>23.778916544655928</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="6"/>
+        <f>(F35+L35)/M35</f>
         <v>23.778916544655928</v>
       </c>
       <c r="T35" s="2">
@@ -9083,7 +9088,7 @@
         <v>6.9644000000000004</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="7"/>
+        <f>O35*G35</f>
         <v>0</v>
       </c>
     </row>
@@ -9114,38 +9119,38 @@
         <f>VLOOKUP(A36,[1]TDSheet!$A:$H,8,0)</f>
         <v>60</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <f>VLOOKUP(A36,[2]TDSheet!$A:$Q,4,0)</f>
         <v>32.700000000000003</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <f t="shared" si="1"/>
         <v>0.9199999999999946</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <f>VLOOKUP(A36,[1]TDSheet!$A:$O,15,0)</f>
         <v>79.960000000000008</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="2"/>
+        <f>E36/5</f>
         <v>6.7239999999999993</v>
       </c>
       <c r="N36" s="22">
         <v>20</v>
       </c>
       <c r="O36" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="P36" s="22">
         <v>20</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="5"/>
+        <f>(F36+L36+O36)/M36</f>
         <v>14.863176680547296</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="6"/>
+        <f>(F36+L36)/M36</f>
         <v>11.888756692444977</v>
       </c>
       <c r="T36" s="2">
@@ -9161,7 +9166,7 @@
         <v>11.009</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="7"/>
+        <f>O36*G36</f>
         <v>20</v>
       </c>
     </row>
@@ -9190,38 +9195,38 @@
         <f>VLOOKUP(A37,[1]TDSheet!$A:$H,8,0)</f>
         <v>180</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <f>VLOOKUP(A37,[2]TDSheet!$A:$Q,4,0)</f>
         <v>2.78</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <f t="shared" si="1"/>
         <v>0.73</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <f>VLOOKUP(A37,[1]TDSheet!$A:$O,15,0)</f>
         <v>12.1182</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="2"/>
+        <f>E37/5</f>
         <v>0.70199999999999996</v>
       </c>
       <c r="N37" s="29">
         <v>10</v>
       </c>
       <c r="O37" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P37" s="22">
         <v>10</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="5"/>
+        <f>(F37+L37+O37)/M37</f>
         <v>32.165527065527066</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="6"/>
+        <f>(F37+L37)/M37</f>
         <v>17.920512820512823</v>
       </c>
       <c r="T37" s="2">
@@ -9237,7 +9242,7 @@
         <v>1.7878000000000001</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="7"/>
+        <f>O37*G37</f>
         <v>10</v>
       </c>
     </row>
@@ -9266,34 +9271,34 @@
         <f>VLOOKUP(A38,[1]TDSheet!$A:$H,8,0)</f>
         <v>35</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <f>VLOOKUP(A38,[2]TDSheet!$A:$Q,4,0)</f>
         <v>1.4</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <f t="shared" si="1"/>
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <f>VLOOKUP(A38,[1]TDSheet!$A:$O,15,0)</f>
         <v>8</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="2"/>
+        <f>E38/5</f>
         <v>0.2792</v>
       </c>
       <c r="N38" s="22"/>
       <c r="O38" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P38" s="22"/>
       <c r="R38" s="2">
-        <f t="shared" si="5"/>
+        <f>(F38+L38+O38)/M38</f>
         <v>33.653295128939831</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="6"/>
+        <f>(F38+L38)/M38</f>
         <v>33.653295128939831</v>
       </c>
       <c r="T38" s="2">
@@ -9309,7 +9314,7 @@
         <v>0.69720000000000004</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="7"/>
+        <f>O38*G38</f>
         <v>0</v>
       </c>
     </row>
@@ -9338,24 +9343,24 @@
         <f>VLOOKUP(A39,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <f>VLOOKUP(A39,[2]TDSheet!$A:$Q,4,0)</f>
         <v>12.1</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <f t="shared" si="1"/>
         <v>-0.14499999999999957</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="2">
         <f>VLOOKUP(A39,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="2"/>
+        <f>E39/5</f>
         <v>2.391</v>
       </c>
       <c r="N39" s="22">
-        <f t="shared" ref="N39:N44" si="8">13*M39-K39-F39</f>
+        <f>13*M39-L39-F39</f>
         <v>18.974999999999998</v>
       </c>
       <c r="O39" s="22">
@@ -9365,11 +9370,11 @@
         <v>6</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="5"/>
+        <f>(F39+L39+O39)/M39</f>
         <v>7.5734002509410292</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="6"/>
+        <f>(F39+L39)/M39</f>
         <v>5.0639899623588462</v>
       </c>
       <c r="T39" s="2">
@@ -9385,7 +9390,7 @@
         <v>38.278199999999998</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="7"/>
+        <f>O39*G39</f>
         <v>6</v>
       </c>
     </row>
@@ -9412,38 +9417,38 @@
         <f>VLOOKUP(A40,[1]TDSheet!$A:$H,8,0)</f>
         <v>30</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <f>VLOOKUP(A40,[2]TDSheet!$A:$Q,4,0)</f>
         <v>15.5</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <f t="shared" si="1"/>
         <v>-3.5790000000000006</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
         <f>VLOOKUP(A40,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="2"/>
+        <f>E40/5</f>
         <v>2.3841999999999999</v>
       </c>
       <c r="N40" s="22">
         <v>25</v>
       </c>
       <c r="O40" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="P40" s="22">
         <v>25</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="5"/>
+        <f>(F40+L40+O40)/M40</f>
         <v>10.485697508598273</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="6"/>
+        <f>(F40+L40)/M40</f>
         <v>0</v>
       </c>
       <c r="T40" s="2">
@@ -9459,7 +9464,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="7"/>
+        <f>O40*G40</f>
         <v>25</v>
       </c>
     </row>
@@ -9488,16 +9493,16 @@
         <f>VLOOKUP(A41,[1]TDSheet!$A:$H,8,0)</f>
         <v>30</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <f t="shared" si="1"/>
         <v>-3.3940000000000001</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <f>VLOOKUP(A41,[1]TDSheet!$A:$O,15,0)</f>
         <v>16</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="2"/>
+        <f>E41/5</f>
         <v>-0.67880000000000007</v>
       </c>
       <c r="N41" s="29">
@@ -9510,11 +9515,11 @@
         <v>16</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="5"/>
+        <f>(F41+L41+O41)/M41</f>
         <v>-47.142015321154972</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="6"/>
+        <f>(F41+L41)/M41</f>
         <v>-23.571007660577486</v>
       </c>
       <c r="T41" s="2">
@@ -9530,7 +9535,7 @@
         <v>6.6420000000000003</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" si="7"/>
+        <f>O41*G41</f>
         <v>16</v>
       </c>
     </row>
@@ -9561,34 +9566,34 @@
         <f>VLOOKUP(A42,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <f>VLOOKUP(A42,[2]TDSheet!$A:$Q,4,0)</f>
         <v>2.6</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <f t="shared" si="1"/>
         <v>-0.76600000000000001</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="2">
         <f>VLOOKUP(A42,[1]TDSheet!$A:$O,15,0)</f>
         <v>16</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="2"/>
+        <f>E42/5</f>
         <v>0.36680000000000001</v>
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P42" s="22"/>
       <c r="R42" s="2">
-        <f t="shared" si="5"/>
+        <f>(F42+L42+O42)/M42</f>
         <v>47.254634678298792</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="6"/>
+        <f>(F42+L42)/M42</f>
         <v>47.254634678298792</v>
       </c>
       <c r="T42" s="2">
@@ -9604,7 +9609,7 @@
         <v>11.8438</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="7"/>
+        <f>O42*G42</f>
         <v>0</v>
       </c>
     </row>
@@ -9633,24 +9638,24 @@
         <f>VLOOKUP(A43,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <f>VLOOKUP(A43,[2]TDSheet!$A:$Q,4,0)</f>
         <v>54.15</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <f t="shared" si="1"/>
         <v>0.55000000000000426</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L43" s="2">
         <f>VLOOKUP(A43,[1]TDSheet!$A:$O,15,0)</f>
         <v>120</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="2"/>
+        <f>E43/5</f>
         <v>10.940000000000001</v>
       </c>
       <c r="N43" s="22">
-        <f>14*M43-K43-F43</f>
+        <f>14*M43-L43-F43</f>
         <v>33.160000000000025</v>
       </c>
       <c r="O43" s="22">
@@ -9660,11 +9665,11 @@
         <v>120</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="5"/>
+        <f>(F43+L43+O43)/M43</f>
         <v>15.539305301645337</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="6"/>
+        <f>(F43+L43)/M43</f>
         <v>10.968921389396709</v>
       </c>
       <c r="T43" s="2">
@@ -9680,7 +9685,7 @@
         <v>35.141800000000003</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="7"/>
+        <f>O43*G43</f>
         <v>50</v>
       </c>
     </row>
@@ -9711,39 +9716,39 @@
         <f>VLOOKUP(A44,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <f>VLOOKUP(A44,[2]TDSheet!$A:$Q,4,0)</f>
         <v>16.492999999999999</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <f t="shared" si="1"/>
         <v>-3.7109999999999985</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L44" s="2">
         <f>VLOOKUP(A44,[1]TDSheet!$A:$O,15,0)</f>
         <v>16</v>
       </c>
       <c r="M44" s="2">
+        <f>E44/5</f>
+        <v>2.5564</v>
+      </c>
+      <c r="N44" s="22">
+        <f>13*M44-L44-F44</f>
+        <v>15.881199999999996</v>
+      </c>
+      <c r="O44" s="22">
         <f t="shared" si="2"/>
-        <v>2.5564</v>
-      </c>
-      <c r="N44" s="22">
-        <f t="shared" si="8"/>
-        <v>15.881199999999996</v>
-      </c>
-      <c r="O44" s="22">
-        <f t="shared" si="4"/>
         <v>15.881199999999996</v>
       </c>
       <c r="P44" s="22">
         <v>16</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="5"/>
+        <f>(F44+L44+O44)/M44</f>
         <v>12.999999999999998</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="6"/>
+        <f>(F44+L44)/M44</f>
         <v>6.7876701611641375</v>
       </c>
       <c r="T44" s="2">
@@ -9759,7 +9764,7 @@
         <v>2.5038</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="7"/>
+        <f>O44*G44</f>
         <v>15.881199999999996</v>
       </c>
     </row>
@@ -9792,20 +9797,20 @@
         <f>VLOOKUP(A45,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <f>VLOOKUP(A45,[2]TDSheet!$A:$Q,4,0)</f>
         <v>34</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="2">
         <f>VLOOKUP(A45,[1]TDSheet!$A:$O,15,0)</f>
         <v>72</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="2"/>
+        <f>E45/5</f>
         <v>5.4</v>
       </c>
       <c r="N45" s="22"/>
@@ -9814,11 +9819,11 @@
         <v>24</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" si="5"/>
+        <f>(F45+L45+O45)/M45</f>
         <v>16.666666666666664</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="6"/>
+        <f>(F45+L45)/M45</f>
         <v>16.666666666666664</v>
       </c>
       <c r="T45" s="2">
@@ -9834,7 +9839,7 @@
         <v>35.6</v>
       </c>
       <c r="X45" s="2">
-        <f t="shared" si="7"/>
+        <f>O45*G45</f>
         <v>0</v>
       </c>
     </row>
@@ -9865,24 +9870,24 @@
         <f>VLOOKUP(A46,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <f>VLOOKUP(A46,[2]TDSheet!$A:$Q,4,0)</f>
         <v>65</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="2">
         <f>VLOOKUP(A46,[1]TDSheet!$A:$O,15,0)</f>
         <v>152</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="2"/>
+        <f>E46/5</f>
         <v>12.2</v>
       </c>
       <c r="N46" s="22">
-        <f>14*M46-K46-F46</f>
+        <f>14*M46-L46-F46</f>
         <v>39.799999999999983</v>
       </c>
       <c r="O46" s="22">
@@ -9892,11 +9897,11 @@
         <v>100</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="5"/>
+        <f>(F46+L46+O46)/M46</f>
         <v>15.655737704918034</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="6"/>
+        <f>(F46+L46)/M46</f>
         <v>10.737704918032788</v>
       </c>
       <c r="T46" s="2">
@@ -9912,7 +9917,7 @@
         <v>22</v>
       </c>
       <c r="X46" s="2">
-        <f t="shared" si="7"/>
+        <f>O46*G46</f>
         <v>24</v>
       </c>
     </row>
@@ -9943,24 +9948,24 @@
         <f>VLOOKUP(A47,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="2">
         <f>VLOOKUP(A47,[2]TDSheet!$A:$Q,4,0)</f>
         <v>212</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
-      <c r="K47" s="2">
+      <c r="L47" s="2">
         <f>VLOOKUP(A47,[1]TDSheet!$A:$O,15,0)</f>
         <v>260.79999999999995</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="2"/>
+        <f>E47/5</f>
         <v>36.4</v>
       </c>
       <c r="N47" s="22">
-        <f>14*M47-K47-F47</f>
+        <f>14*M47-L47-F47</f>
         <v>254.8</v>
       </c>
       <c r="O47" s="22">
@@ -9970,11 +9975,11 @@
         <v>350</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="5"/>
+        <f>(F47+L47+O47)/M47</f>
         <v>14.967032967032967</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="6"/>
+        <f>(F47+L47)/M47</f>
         <v>6.9999999999999991</v>
       </c>
       <c r="T47" s="2">
@@ -9990,7 +9995,7 @@
         <v>37.4</v>
       </c>
       <c r="X47" s="2">
-        <f t="shared" si="7"/>
+        <f>O47*G47</f>
         <v>130.5</v>
       </c>
     </row>
@@ -10017,30 +10022,30 @@
         <f>VLOOKUP(A48,[1]TDSheet!$A:$H,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="2">
         <f>VLOOKUP(A48,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="2"/>
+        <f>E48/5</f>
         <v>0</v>
       </c>
       <c r="N48" s="22"/>
       <c r="O48" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P48" s="22"/>
       <c r="R48" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>(F48+L48+O48)/M48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S48" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>(F48+L48)/M48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T48" s="2">
@@ -10056,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="2">
-        <f t="shared" si="7"/>
+        <f>O48*G48</f>
         <v>0</v>
       </c>
     </row>
@@ -10085,24 +10090,24 @@
         <f>VLOOKUP(A49,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <f>VLOOKUP(A49,[2]TDSheet!$A:$Q,4,0)</f>
         <v>111</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="2">
         <f>VLOOKUP(A49,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="2"/>
+        <f>E49/5</f>
         <v>21.8</v>
       </c>
       <c r="N49" s="22">
-        <f>10*M49-K49-F49</f>
+        <f>10*M49-L49-F49</f>
         <v>182</v>
       </c>
       <c r="O49" s="22">
@@ -10112,11 +10117,11 @@
         <v>200</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="5"/>
+        <f>(F49+L49+O49)/M49</f>
         <v>10.825688073394495</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="6"/>
+        <f>(F49+L49)/M49</f>
         <v>1.6513761467889907</v>
       </c>
       <c r="T49" s="2">
@@ -10132,7 +10137,7 @@
         <v>6.8</v>
       </c>
       <c r="X49" s="2">
-        <f t="shared" si="7"/>
+        <f>O49*G49</f>
         <v>80</v>
       </c>
     </row>
@@ -10163,37 +10168,37 @@
         <f>VLOOKUP(A50,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <f>VLOOKUP(A50,[2]TDSheet!$A:$Q,4,0)</f>
         <v>203</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <f t="shared" si="1"/>
         <v>-24</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="2">
         <f>VLOOKUP(A50,[1]TDSheet!$A:$O,15,0)</f>
         <v>90</v>
       </c>
       <c r="M50" s="2">
+        <f>E50/5</f>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="N50" s="22">
+        <f>13*M50-L50-F50</f>
+        <v>273.39999999999998</v>
+      </c>
+      <c r="O50" s="22">
         <f t="shared" si="2"/>
-        <v>35.799999999999997</v>
-      </c>
-      <c r="N50" s="22">
-        <f t="shared" ref="N50:N55" si="9">13*M50-K50-F50</f>
-        <v>273.39999999999998</v>
-      </c>
-      <c r="O50" s="22">
-        <f t="shared" si="4"/>
         <v>273.39999999999998</v>
       </c>
       <c r="P50" s="22"/>
       <c r="R50" s="2">
-        <f t="shared" si="5"/>
+        <f>(F50+L50+O50)/M50</f>
         <v>13</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="6"/>
+        <f>(F50+L50)/M50</f>
         <v>5.3631284916201123</v>
       </c>
       <c r="T50" s="2">
@@ -10209,7 +10214,7 @@
         <v>30.2</v>
       </c>
       <c r="X50" s="2">
-        <f t="shared" si="7"/>
+        <f>O50*G50</f>
         <v>109.36</v>
       </c>
     </row>
@@ -10238,20 +10243,20 @@
         <f>VLOOKUP(A51,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <f>VLOOKUP(A51,[2]TDSheet!$A:$Q,4,0)</f>
         <v>9</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="2">
         <f>VLOOKUP(A51,[1]TDSheet!$A:$O,15,0)</f>
         <v>30</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="2"/>
+        <f>E51/5</f>
         <v>0.2</v>
       </c>
       <c r="N51" s="22"/>
@@ -10262,11 +10267,11 @@
         <v>24</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="5"/>
+        <f>(F51+L51+O51)/M51</f>
         <v>200</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="6"/>
+        <f>(F51+L51)/M51</f>
         <v>150</v>
       </c>
       <c r="T51" s="2">
@@ -10282,7 +10287,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="7"/>
+        <f>O51*G51</f>
         <v>4</v>
       </c>
     </row>
@@ -10311,34 +10316,34 @@
         <f>VLOOKUP(A52,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <f t="shared" si="1"/>
         <v>-0.63</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="2">
         <f>VLOOKUP(A52,[1]TDSheet!$A:$O,15,0)</f>
         <v>8</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="2"/>
+        <f>E52/5</f>
         <v>-0.126</v>
       </c>
       <c r="N52" s="29">
         <v>10</v>
       </c>
       <c r="O52" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P52" s="22">
         <v>10</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="5"/>
+        <f>(F52+L52+O52)/M52</f>
         <v>-142.85714285714286</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="6"/>
+        <f>(F52+L52)/M52</f>
         <v>-63.492063492063494</v>
       </c>
       <c r="T52" s="2">
@@ -10354,7 +10359,7 @@
         <v>16.484200000000001</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" si="7"/>
+        <f>O52*G52</f>
         <v>10</v>
       </c>
     </row>
@@ -10383,38 +10388,38 @@
         <f>VLOOKUP(A53,[1]TDSheet!$A:$H,8,0)</f>
         <v>730</v>
       </c>
-      <c r="I53" s="2">
+      <c r="J53" s="2">
         <f>VLOOKUP(A53,[2]TDSheet!$A:$Q,4,0)</f>
         <v>42</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K53" s="2">
+      <c r="L53" s="2">
         <f>VLOOKUP(A53,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="2"/>
+        <f>E53/5</f>
         <v>8.4</v>
       </c>
       <c r="N53" s="22">
         <v>30</v>
       </c>
       <c r="O53" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="P53" s="22">
         <v>30</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="5"/>
+        <f>(F53+L53+O53)/M53</f>
         <v>15.476190476190476</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="6"/>
+        <f>(F53+L53)/M53</f>
         <v>11.904761904761905</v>
       </c>
       <c r="T53" s="2">
@@ -10430,7 +10435,7 @@
         <v>11.2</v>
       </c>
       <c r="X53" s="2">
-        <f t="shared" si="7"/>
+        <f>O53*G53</f>
         <v>3</v>
       </c>
     </row>
@@ -10461,39 +10466,39 @@
         <f>VLOOKUP(A54,[1]TDSheet!$A:$H,8,0)</f>
         <v>60</v>
       </c>
-      <c r="I54" s="2">
+      <c r="J54" s="2">
         <f>VLOOKUP(A54,[2]TDSheet!$A:$Q,4,0)</f>
         <v>21</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K54" s="2">
+      <c r="L54" s="2">
         <f>VLOOKUP(A54,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M54" s="2">
+        <f>E54/5</f>
+        <v>4</v>
+      </c>
+      <c r="N54" s="22">
+        <f>10*M54-L54-F54</f>
+        <v>34</v>
+      </c>
+      <c r="O54" s="22">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N54" s="22">
-        <f>10*M54-K54-F54</f>
-        <v>34</v>
-      </c>
-      <c r="O54" s="22">
-        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="P54" s="22">
         <v>34</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="5"/>
+        <f>(F54+L54+O54)/M54</f>
         <v>10</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="6"/>
+        <f>(F54+L54)/M54</f>
         <v>1.5</v>
       </c>
       <c r="T54" s="2">
@@ -10509,7 +10514,7 @@
         <v>1.6</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" si="7"/>
+        <f>O54*G54</f>
         <v>13.600000000000001</v>
       </c>
     </row>
@@ -10538,39 +10543,39 @@
         <f>VLOOKUP(A55,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I55" s="2">
+      <c r="J55" s="2">
         <f>VLOOKUP(A55,[2]TDSheet!$A:$Q,4,0)</f>
         <v>39</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <f t="shared" si="1"/>
         <v>-14</v>
       </c>
-      <c r="K55" s="2">
+      <c r="L55" s="2">
         <f>VLOOKUP(A55,[1]TDSheet!$A:$O,15,0)</f>
         <v>7.5999999999999943</v>
       </c>
       <c r="M55" s="2">
+        <f>E55/5</f>
+        <v>5</v>
+      </c>
+      <c r="N55" s="22">
+        <f>13*M55-L55-F55</f>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="O55" s="22">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N55" s="22">
-        <f t="shared" si="9"/>
-        <v>32.400000000000006</v>
-      </c>
-      <c r="O55" s="22">
-        <f t="shared" si="4"/>
         <v>32.400000000000006</v>
       </c>
       <c r="P55" s="22">
         <v>32</v>
       </c>
       <c r="R55" s="2">
-        <f t="shared" si="5"/>
+        <f>(F55+L55+O55)/M55</f>
         <v>13</v>
       </c>
       <c r="S55" s="2">
-        <f t="shared" si="6"/>
+        <f>(F55+L55)/M55</f>
         <v>6.5199999999999987</v>
       </c>
       <c r="T55" s="2">
@@ -10586,7 +10591,7 @@
         <v>5.8</v>
       </c>
       <c r="X55" s="2">
-        <f t="shared" si="7"/>
+        <f>O55*G55</f>
         <v>11.340000000000002</v>
       </c>
     </row>
@@ -10615,39 +10620,39 @@
         <f>VLOOKUP(A56,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I56" s="2">
+      <c r="J56" s="2">
         <f>VLOOKUP(A56,[2]TDSheet!$A:$Q,4,0)</f>
         <v>33</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K56" s="2">
+      <c r="L56" s="2">
         <f>VLOOKUP(A56,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M56" s="2">
+        <f>E56/5</f>
+        <v>6.8</v>
+      </c>
+      <c r="N56" s="22">
+        <f>10*M56-L56-F56</f>
+        <v>52</v>
+      </c>
+      <c r="O56" s="22">
         <f t="shared" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="N56" s="22">
-        <f>10*M56-K56-F56</f>
-        <v>52</v>
-      </c>
-      <c r="O56" s="22">
-        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="P56" s="22">
         <v>52</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="5"/>
+        <f>(F56+L56+O56)/M56</f>
         <v>10</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="6"/>
+        <f>(F56+L56)/M56</f>
         <v>2.3529411764705883</v>
       </c>
       <c r="T56" s="2">
@@ -10663,7 +10668,7 @@
         <v>0.4</v>
       </c>
       <c r="X56" s="2">
-        <f t="shared" si="7"/>
+        <f>O56*G56</f>
         <v>18.2</v>
       </c>
     </row>
@@ -10690,38 +10695,38 @@
         <f>VLOOKUP(A57,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I57" s="2">
+      <c r="J57" s="2">
         <f>VLOOKUP(A57,[2]TDSheet!$A:$Q,4,0)</f>
         <v>43</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <f t="shared" si="1"/>
         <v>-45</v>
       </c>
-      <c r="K57" s="2">
+      <c r="L57" s="2">
         <f>VLOOKUP(A57,[1]TDSheet!$A:$O,15,0)</f>
         <v>135</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="2"/>
+        <f>E57/5</f>
         <v>-0.4</v>
       </c>
       <c r="N57" s="29">
         <v>60</v>
       </c>
       <c r="O57" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="P57" s="22">
         <v>60</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="5"/>
+        <f>(F57+L57+O57)/M57</f>
         <v>-487.5</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" si="6"/>
+        <f>(F57+L57)/M57</f>
         <v>-337.5</v>
       </c>
       <c r="T57" s="2">
@@ -10737,7 +10742,7 @@
         <v>15.8</v>
       </c>
       <c r="X57" s="2">
-        <f t="shared" si="7"/>
+        <f>O57*G57</f>
         <v>24</v>
       </c>
     </row>
@@ -10766,20 +10771,20 @@
         <f>VLOOKUP(A58,[1]TDSheet!$A:$H,8,0)</f>
         <v>45</v>
       </c>
-      <c r="I58" s="2">
+      <c r="J58" s="2">
         <f>VLOOKUP(A58,[2]TDSheet!$A:$Q,4,0)</f>
         <v>30</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <f t="shared" si="1"/>
         <v>-31.12</v>
       </c>
-      <c r="K58" s="2">
+      <c r="L58" s="2">
         <f>VLOOKUP(A58,[1]TDSheet!$A:$O,15,0)</f>
         <v>120</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="2"/>
+        <f>E58/5</f>
         <v>-0.22400000000000003</v>
       </c>
       <c r="N58" s="22"/>
@@ -10793,11 +10798,11 @@
         <v>118</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="5"/>
+        <f>(F58+L58+O58)/M58</f>
         <v>-892.85714285714278</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" si="6"/>
+        <f>(F58+L58)/M58</f>
         <v>-535.71428571428567</v>
       </c>
       <c r="T58" s="2">
@@ -10813,7 +10818,7 @@
         <v>7.4</v>
       </c>
       <c r="X58" s="2">
-        <f t="shared" si="7"/>
+        <f>O58*G58</f>
         <v>32</v>
       </c>
     </row>
@@ -10840,34 +10845,34 @@
         <f>VLOOKUP(A59,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I59" s="2">
+      <c r="J59" s="2">
         <f>VLOOKUP(A59,[2]TDSheet!$A:$Q,4,0)</f>
         <v>2</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="K59" s="2">
+      <c r="L59" s="2">
         <f>VLOOKUP(A59,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="2"/>
+        <f>E59/5</f>
         <v>0</v>
       </c>
       <c r="N59" s="22"/>
       <c r="O59" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P59" s="22"/>
       <c r="R59" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f>(F59+L59+O59)/M59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S59" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f>(F59+L59)/M59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T59" s="2">
@@ -10886,7 +10891,7 @@
         <v>109</v>
       </c>
       <c r="X59" s="2">
-        <f t="shared" si="7"/>
+        <f>O59*G59</f>
         <v>0</v>
       </c>
     </row>
@@ -10917,39 +10922,39 @@
         <f>VLOOKUP(A60,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I60" s="2">
+      <c r="J60" s="2">
         <f>VLOOKUP(A60,[2]TDSheet!$A:$Q,4,0)</f>
         <v>97.05</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <f t="shared" si="1"/>
         <v>7.3419999999999987</v>
       </c>
-      <c r="K60" s="2">
+      <c r="L60" s="2">
         <f>VLOOKUP(A60,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M60" s="2">
+        <f>E60/5</f>
+        <v>20.878399999999999</v>
+      </c>
+      <c r="N60" s="22">
+        <f>10*M60-L60-F60</f>
+        <v>167.21699999999998</v>
+      </c>
+      <c r="O60" s="22">
         <f t="shared" si="2"/>
-        <v>20.878399999999999</v>
-      </c>
-      <c r="N60" s="22">
-        <f>10*M60-K60-F60</f>
-        <v>167.21699999999998</v>
-      </c>
-      <c r="O60" s="22">
-        <f t="shared" si="4"/>
         <v>167.21699999999998</v>
       </c>
       <c r="P60" s="22">
         <v>167</v>
       </c>
       <c r="R60" s="2">
-        <f t="shared" si="5"/>
+        <f>(F60+L60+O60)/M60</f>
         <v>10</v>
       </c>
       <c r="S60" s="2">
-        <f t="shared" si="6"/>
+        <f>(F60+L60)/M60</f>
         <v>1.9909092650777838</v>
       </c>
       <c r="T60" s="2">
@@ -10965,7 +10970,7 @@
         <v>1.0836000000000001</v>
       </c>
       <c r="X60" s="2">
-        <f t="shared" si="7"/>
+        <f>O60*G60</f>
         <v>167.21699999999998</v>
       </c>
     </row>
@@ -10996,34 +11001,34 @@
         <f>VLOOKUP(A61,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I61" s="2">
+      <c r="J61" s="2">
         <f>VLOOKUP(A61,[2]TDSheet!$A:$Q,4,0)</f>
         <v>10.6</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <f t="shared" si="1"/>
         <v>0.58000000000000007</v>
       </c>
-      <c r="K61" s="2">
+      <c r="L61" s="2">
         <f>VLOOKUP(A61,[1]TDSheet!$A:$O,15,0)</f>
         <v>24.7714</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="2"/>
+        <f>E61/5</f>
         <v>2.2359999999999998</v>
       </c>
       <c r="N61" s="22"/>
       <c r="O61" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P61" s="22"/>
       <c r="R61" s="2">
-        <f t="shared" si="5"/>
+        <f>(F61+L61+O61)/M61</f>
         <v>14.835152057245081</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="6"/>
+        <f>(F61+L61)/M61</f>
         <v>14.835152057245081</v>
       </c>
       <c r="T61" s="2">
@@ -11039,7 +11044,7 @@
         <v>3.3593999999999999</v>
       </c>
       <c r="X61" s="2">
-        <f t="shared" si="7"/>
+        <f>O61*G61</f>
         <v>0</v>
       </c>
     </row>
@@ -11068,38 +11073,38 @@
         <f>VLOOKUP(A62,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I62" s="2">
+      <c r="J62" s="2">
         <f>VLOOKUP(A62,[2]TDSheet!$A:$Q,4,0)</f>
         <v>6.3</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <f t="shared" si="1"/>
         <v>0.14500000000000046</v>
       </c>
-      <c r="K62" s="2">
+      <c r="L62" s="2">
         <f>VLOOKUP(A62,[1]TDSheet!$A:$O,15,0)</f>
         <v>12</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="2"/>
+        <f>E62/5</f>
         <v>1.2890000000000001</v>
       </c>
       <c r="N62" s="22">
         <v>5</v>
       </c>
       <c r="O62" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P62" s="22">
         <v>12</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" si="5"/>
+        <f>(F62+L62+O62)/M62</f>
         <v>15.186190845616755</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="6"/>
+        <f>(F62+L62)/M62</f>
         <v>11.307214895267647</v>
       </c>
       <c r="T62" s="2">
@@ -11115,7 +11120,7 @@
         <v>1.294</v>
       </c>
       <c r="X62" s="2">
-        <f t="shared" si="7"/>
+        <f>O62*G62</f>
         <v>5</v>
       </c>
     </row>
@@ -11144,20 +11149,20 @@
         <f>VLOOKUP(A63,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I63" s="2">
+      <c r="J63" s="2">
         <f>VLOOKUP(A63,[2]TDSheet!$A:$Q,4,0)</f>
         <v>167</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <f t="shared" si="1"/>
         <v>-114</v>
       </c>
-      <c r="K63" s="2">
+      <c r="L63" s="2">
         <f>VLOOKUP(A63,[1]TDSheet!$A:$O,15,0)</f>
         <v>600</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="2"/>
+        <f>E63/5</f>
         <v>10.6</v>
       </c>
       <c r="N63" s="22"/>
@@ -11171,11 +11176,11 @@
         <v>118</v>
       </c>
       <c r="R63" s="2">
-        <f t="shared" si="5"/>
+        <f>(F63+L63+O63)/M63</f>
         <v>84.905660377358487</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="6"/>
+        <f>(F63+L63)/M63</f>
         <v>56.60377358490566</v>
       </c>
       <c r="T63" s="2">
@@ -11191,7 +11196,7 @@
         <v>79.8</v>
       </c>
       <c r="X63" s="2">
-        <f t="shared" si="7"/>
+        <f>O63*G63</f>
         <v>135</v>
       </c>
     </row>
@@ -11220,20 +11225,20 @@
         <f>VLOOKUP(A64,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I64" s="2">
+      <c r="J64" s="2">
         <f>VLOOKUP(A64,[2]TDSheet!$A:$Q,4,0)</f>
         <v>134</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="K64" s="2">
+      <c r="L64" s="2">
         <f>VLOOKUP(A64,[1]TDSheet!$A:$O,15,0)</f>
         <v>450</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="2"/>
+        <f>E64/5</f>
         <v>3.8</v>
       </c>
       <c r="N64" s="22"/>
@@ -11247,11 +11252,11 @@
         <v>118</v>
       </c>
       <c r="R64" s="2">
-        <f t="shared" si="5"/>
+        <f>(F64+L64+O64)/M64</f>
         <v>157.89473684210526</v>
       </c>
       <c r="S64" s="2">
-        <f t="shared" si="6"/>
+        <f>(F64+L64)/M64</f>
         <v>118.42105263157896</v>
       </c>
       <c r="T64" s="2">
@@ -11267,7 +11272,7 @@
         <v>54.2</v>
       </c>
       <c r="X64" s="2">
-        <f t="shared" si="7"/>
+        <f>O64*G64</f>
         <v>67.5</v>
       </c>
     </row>
@@ -11298,24 +11303,24 @@
         <f>VLOOKUP(A65,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I65" s="2">
+      <c r="J65" s="2">
         <f>VLOOKUP(A65,[2]TDSheet!$A:$Q,4,0)</f>
         <v>206</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <f t="shared" si="1"/>
         <v>-11</v>
       </c>
-      <c r="K65" s="2">
+      <c r="L65" s="2">
         <f>VLOOKUP(A65,[1]TDSheet!$A:$O,15,0)</f>
         <v>60</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="2"/>
+        <f>E65/5</f>
         <v>39</v>
       </c>
       <c r="N65" s="22">
-        <f>11*M65-K65-F65</f>
+        <f>11*M65-L65-F65</f>
         <v>305</v>
       </c>
       <c r="O65" s="22">
@@ -11325,11 +11330,11 @@
         <v>350</v>
       </c>
       <c r="R65" s="2">
-        <f t="shared" si="5"/>
+        <f>(F65+L65+O65)/M65</f>
         <v>12.153846153846153</v>
       </c>
       <c r="S65" s="2">
-        <f t="shared" si="6"/>
+        <f>(F65+L65)/M65</f>
         <v>3.1794871794871793</v>
       </c>
       <c r="T65" s="2">
@@ -11345,7 +11350,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="X65" s="2">
-        <f t="shared" si="7"/>
+        <f>O65*G65</f>
         <v>157.5</v>
       </c>
     </row>
@@ -11374,38 +11379,38 @@
         <f>VLOOKUP(A66,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I66" s="2">
+      <c r="J66" s="2">
         <f>VLOOKUP(A66,[2]TDSheet!$A:$Q,4,0)</f>
         <v>4</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K66" s="2">
+      <c r="L66" s="2">
         <f>VLOOKUP(A66,[1]TDSheet!$A:$O,15,0)</f>
         <v>12</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" si="2"/>
+        <f>E66/5</f>
         <v>0.6</v>
       </c>
       <c r="N66" s="29">
         <v>10</v>
       </c>
       <c r="O66" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P66" s="22">
         <v>10</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" si="5"/>
+        <f>(F66+L66+O66)/M66</f>
         <v>36.666666666666671</v>
       </c>
       <c r="S66" s="2">
-        <f t="shared" si="6"/>
+        <f>(F66+L66)/M66</f>
         <v>20</v>
       </c>
       <c r="T66" s="2">
@@ -11421,7 +11426,7 @@
         <v>11.8</v>
       </c>
       <c r="X66" s="2">
-        <f t="shared" si="7"/>
+        <f>O66*G66</f>
         <v>4</v>
       </c>
     </row>
@@ -11452,34 +11457,34 @@
         <f>VLOOKUP(A67,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I67" s="2">
+      <c r="J67" s="2">
         <f>VLOOKUP(A67,[2]TDSheet!$A:$Q,4,0)</f>
         <v>14</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="K67" s="2">
+      <c r="L67" s="2">
         <f>VLOOKUP(A67,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="2"/>
+        <f>E67/5</f>
         <v>1.6</v>
       </c>
       <c r="N67" s="22"/>
       <c r="O67" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P67" s="22"/>
       <c r="R67" s="2">
-        <f t="shared" si="5"/>
+        <f>(F67+L67+O67)/M67</f>
         <v>35</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" si="6"/>
+        <f>(F67+L67)/M67</f>
         <v>35</v>
       </c>
       <c r="T67" s="2">
@@ -11499,7 +11504,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X67" s="2">
-        <f t="shared" si="7"/>
+        <f>O67*G67</f>
         <v>0</v>
       </c>
     </row>
@@ -11530,34 +11535,34 @@
         <f>VLOOKUP(A68,[1]TDSheet!$A:$H,8,0)</f>
         <v>55</v>
       </c>
-      <c r="I68" s="2">
+      <c r="J68" s="2">
         <f>VLOOKUP(A68,[2]TDSheet!$A:$Q,4,0)</f>
         <v>25.15</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <f t="shared" si="1"/>
         <v>6.7140000000000022</v>
       </c>
-      <c r="K68" s="2">
+      <c r="L68" s="2">
         <f>VLOOKUP(A68,[1]TDSheet!$A:$O,15,0)</f>
         <v>94.647999999999996</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="2"/>
+        <f>E68/5</f>
         <v>6.3727999999999998</v>
       </c>
       <c r="N68" s="22"/>
       <c r="O68" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P68" s="22"/>
       <c r="R68" s="2">
-        <f t="shared" si="5"/>
+        <f>(F68+L68+O68)/M68</f>
         <v>18.740898819984935</v>
       </c>
       <c r="S68" s="2">
-        <f t="shared" si="6"/>
+        <f>(F68+L68)/M68</f>
         <v>18.740898819984935</v>
       </c>
       <c r="T68" s="2">
@@ -11573,7 +11578,7 @@
         <v>12.608000000000001</v>
       </c>
       <c r="X68" s="2">
-        <f t="shared" si="7"/>
+        <f>O68*G68</f>
         <v>0</v>
       </c>
     </row>
@@ -11602,34 +11607,34 @@
         <f>VLOOKUP(A69,[1]TDSheet!$A:$H,8,0)</f>
         <v>730</v>
       </c>
-      <c r="I69" s="2">
+      <c r="J69" s="2">
         <f>VLOOKUP(A69,[2]TDSheet!$A:$Q,4,0)</f>
         <v>32</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K69" s="2">
+      <c r="L69" s="2">
         <f>VLOOKUP(A69,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="2"/>
+        <f>E69/5</f>
         <v>6.4</v>
       </c>
       <c r="N69" s="22"/>
       <c r="O69" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P69" s="22"/>
       <c r="R69" s="2">
-        <f t="shared" si="5"/>
+        <f>(F69+L69+O69)/M69</f>
         <v>24.21875</v>
       </c>
       <c r="S69" s="2">
-        <f t="shared" si="6"/>
+        <f>(F69+L69)/M69</f>
         <v>24.21875</v>
       </c>
       <c r="T69" s="2">
@@ -11649,7 +11654,7 @@
         <v>необходимо увеличить продажи</v>
       </c>
       <c r="X69" s="2">
-        <f t="shared" si="7"/>
+        <f>O69*G69</f>
         <v>0</v>
       </c>
     </row>
@@ -11678,34 +11683,34 @@
         <f>VLOOKUP(A70,[1]TDSheet!$A:$H,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I70" s="2">
+      <c r="J70" s="2">
         <f>VLOOKUP(A70,[2]TDSheet!$A:$Q,4,0)</f>
         <v>38</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K70" s="2">
+      <c r="L70" s="2">
         <f>VLOOKUP(A70,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" si="2"/>
+        <f>E70/5</f>
         <v>7.6</v>
       </c>
       <c r="N70" s="22"/>
       <c r="O70" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P70" s="22"/>
       <c r="R70" s="2">
-        <f t="shared" si="5"/>
+        <f>(F70+L70+O70)/M70</f>
         <v>2.236842105263158</v>
       </c>
       <c r="S70" s="2">
-        <f t="shared" si="6"/>
+        <f>(F70+L70)/M70</f>
         <v>2.236842105263158</v>
       </c>
       <c r="T70" s="2">
@@ -11721,7 +11726,7 @@
         <v>0.6</v>
       </c>
       <c r="X70" s="2">
-        <f t="shared" si="7"/>
+        <f>O70*G70</f>
         <v>0</v>
       </c>
     </row>
@@ -11752,39 +11757,39 @@
         <f>VLOOKUP(A71,[1]TDSheet!$A:$H,8,0)</f>
         <v>60</v>
       </c>
-      <c r="I71" s="2">
+      <c r="J71" s="2">
         <f>VLOOKUP(A71,[2]TDSheet!$A:$Q,4,0)</f>
         <v>22</v>
       </c>
-      <c r="J71" s="2">
-        <f t="shared" ref="J71:J82" si="10">E71-I71</f>
+      <c r="K71" s="2">
+        <f t="shared" ref="K71:K82" si="3">E71-J71</f>
         <v>-1</v>
       </c>
-      <c r="K71" s="2">
+      <c r="L71" s="2">
         <f>VLOOKUP(A71,[1]TDSheet!$A:$O,15,0)</f>
         <v>15</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" ref="M71:M82" si="11">E71/5</f>
+        <f>E71/5</f>
         <v>4.2</v>
       </c>
       <c r="N71" s="22">
-        <f t="shared" ref="N71:N77" si="12">13*M71-K71-F71</f>
+        <f>13*M71-L71-F71</f>
         <v>35.6</v>
       </c>
       <c r="O71" s="22">
-        <f t="shared" ref="O71:O89" si="13">N71</f>
+        <f t="shared" ref="O71:O82" si="4">N71</f>
         <v>35.6</v>
       </c>
       <c r="P71" s="22">
         <v>36</v>
       </c>
       <c r="R71" s="2">
-        <f t="shared" ref="R71:R82" si="14">(F71+K71+O71)/M71</f>
+        <f>(F71+L71+O71)/M71</f>
         <v>13</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" ref="S71:S82" si="15">(F71+K71)/M71</f>
+        <f>(F71+L71)/M71</f>
         <v>4.5238095238095237</v>
       </c>
       <c r="T71" s="2">
@@ -11800,7 +11805,7 @@
         <v>2.6</v>
       </c>
       <c r="X71" s="2">
-        <f t="shared" ref="X71:X89" si="16">O71*G71</f>
+        <f>O71*G71</f>
         <v>21.36</v>
       </c>
     </row>
@@ -11829,39 +11834,39 @@
         <f>VLOOKUP(A72,[1]TDSheet!$A:$H,8,0)</f>
         <v>60</v>
       </c>
-      <c r="I72" s="2">
+      <c r="J72" s="2">
         <f>VLOOKUP(A72,[2]TDSheet!$A:$Q,4,0)</f>
         <v>16</v>
       </c>
-      <c r="J72" s="2">
-        <f t="shared" si="10"/>
+      <c r="K72" s="2">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="K72" s="2">
+      <c r="L72" s="2">
         <f>VLOOKUP(A72,[1]TDSheet!$A:$O,15,0)</f>
         <v>10</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="11"/>
+        <f>E72/5</f>
         <v>3</v>
       </c>
       <c r="N72" s="22">
-        <f t="shared" si="12"/>
+        <f>13*M72-L72-F72</f>
         <v>17</v>
       </c>
       <c r="O72" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="P72" s="22">
         <v>25</v>
       </c>
       <c r="R72" s="2">
-        <f t="shared" si="14"/>
+        <f>(F72+L72+O72)/M72</f>
         <v>13</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="15"/>
+        <f>(F72+L72)/M72</f>
         <v>7.333333333333333</v>
       </c>
       <c r="T72" s="2">
@@ -11877,7 +11882,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="X72" s="2">
-        <f t="shared" si="16"/>
+        <f>O72*G72</f>
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -11908,20 +11913,20 @@
         <f>VLOOKUP(A73,[1]TDSheet!$A:$H,8,0)</f>
         <v>60</v>
       </c>
-      <c r="I73" s="2">
+      <c r="J73" s="2">
         <f>VLOOKUP(A73,[2]TDSheet!$A:$Q,4,0)</f>
         <v>9</v>
       </c>
-      <c r="J73" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="K73" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
         <f>VLOOKUP(A73,[1]TDSheet!$A:$O,15,0)</f>
         <v>40</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" si="11"/>
+        <f>E73/5</f>
         <v>1.8</v>
       </c>
       <c r="N73" s="22"/>
@@ -11932,11 +11937,11 @@
         <v>30</v>
       </c>
       <c r="R73" s="2">
-        <f t="shared" si="14"/>
+        <f>(F73+L73+O73)/M73</f>
         <v>32.222222222222221</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="15"/>
+        <f>(F73+L73)/M73</f>
         <v>23.888888888888889</v>
       </c>
       <c r="T73" s="2">
@@ -11952,7 +11957,7 @@
         <v>5.4</v>
       </c>
       <c r="X73" s="2">
-        <f t="shared" si="16"/>
+        <f>O73*G73</f>
         <v>9</v>
       </c>
     </row>
@@ -11983,36 +11988,36 @@
         <f>VLOOKUP(A74,[1]TDSheet!$A:$H,8,0)</f>
         <v>35</v>
       </c>
-      <c r="I74" s="2">
+      <c r="J74" s="2">
         <f>VLOOKUP(A74,[2]TDSheet!$A:$Q,4,0)</f>
         <v>27</v>
       </c>
-      <c r="J74" s="2">
-        <f t="shared" si="10"/>
+      <c r="K74" s="2">
+        <f t="shared" si="3"/>
         <v>-12</v>
       </c>
-      <c r="K74" s="2">
+      <c r="L74" s="2">
         <f>VLOOKUP(A74,[1]TDSheet!$A:$O,15,0)</f>
         <v>30</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="11"/>
+        <f>E74/5</f>
         <v>3</v>
       </c>
       <c r="N74" s="22"/>
       <c r="O74" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P74" s="22">
         <v>20</v>
       </c>
       <c r="R74" s="2">
-        <f t="shared" si="14"/>
+        <f>(F74+L74+O74)/M74</f>
         <v>15.666666666666666</v>
       </c>
       <c r="S74" s="2">
-        <f t="shared" si="15"/>
+        <f>(F74+L74)/M74</f>
         <v>15.666666666666666</v>
       </c>
       <c r="T74" s="2">
@@ -12028,7 +12033,7 @@
         <v>21.8</v>
       </c>
       <c r="X74" s="2">
-        <f t="shared" si="16"/>
+        <f>O74*G74</f>
         <v>0</v>
       </c>
     </row>
@@ -12055,20 +12060,20 @@
         <f>VLOOKUP(A75,[1]TDSheet!$A:$H,8,0)</f>
         <v>55</v>
       </c>
-      <c r="I75" s="2">
+      <c r="J75" s="2">
         <f>VLOOKUP(A75,[2]TDSheet!$A:$Q,4,0)</f>
         <v>8</v>
       </c>
-      <c r="J75" s="2">
-        <f t="shared" si="10"/>
+      <c r="K75" s="2">
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
-      <c r="K75" s="2">
+      <c r="L75" s="2">
         <f>VLOOKUP(A75,[1]TDSheet!$A:$O,15,0)</f>
         <v>35</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="11"/>
+        <f>E75/5</f>
         <v>0.6</v>
       </c>
       <c r="N75" s="29">
@@ -12081,11 +12086,11 @@
         <v>50</v>
       </c>
       <c r="R75" s="2">
-        <f t="shared" si="14"/>
+        <f>(F75+L75+O75)/M75</f>
         <v>108.33333333333334</v>
       </c>
       <c r="S75" s="2">
-        <f t="shared" si="15"/>
+        <f>(F75+L75)/M75</f>
         <v>58.333333333333336</v>
       </c>
       <c r="T75" s="2">
@@ -12105,7 +12110,7 @@
         <v>новинка/ Химич согласовал</v>
       </c>
       <c r="X75" s="2">
-        <f t="shared" si="16"/>
+        <f>O75*G75</f>
         <v>18</v>
       </c>
     </row>
@@ -12136,24 +12141,24 @@
         <f>VLOOKUP(A76,[1]TDSheet!$A:$H,8,0)</f>
         <v>40</v>
       </c>
-      <c r="I76" s="2">
+      <c r="J76" s="2">
         <f>VLOOKUP(A76,[2]TDSheet!$A:$Q,4,0)</f>
         <v>32</v>
       </c>
-      <c r="J76" s="2">
-        <f t="shared" si="10"/>
+      <c r="K76" s="2">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="K76" s="2">
+      <c r="L76" s="2">
         <f>VLOOKUP(A76,[1]TDSheet!$A:$O,15,0)</f>
         <v>64.2</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" si="11"/>
+        <f>E76/5</f>
         <v>6.2</v>
       </c>
       <c r="N76" s="22">
-        <f t="shared" si="12"/>
+        <f>13*M76-L76-F76</f>
         <v>11.400000000000006</v>
       </c>
       <c r="O76" s="22">
@@ -12163,11 +12168,11 @@
         <v>24</v>
       </c>
       <c r="R76" s="2">
-        <f t="shared" si="14"/>
+        <f>(F76+L76+O76)/M76</f>
         <v>14.387096774193548</v>
       </c>
       <c r="S76" s="2">
-        <f t="shared" si="15"/>
+        <f>(F76+L76)/M76</f>
         <v>11.161290322580646</v>
       </c>
       <c r="T76" s="2">
@@ -12183,7 +12188,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="X76" s="2">
-        <f t="shared" si="16"/>
+        <f>O76*G76</f>
         <v>7</v>
       </c>
     </row>
@@ -12214,24 +12219,24 @@
         <f>VLOOKUP(A77,[1]TDSheet!$A:$H,8,0)</f>
         <v>50</v>
       </c>
-      <c r="I77" s="2">
+      <c r="J77" s="2">
         <f>VLOOKUP(A77,[2]TDSheet!$A:$Q,4,0)</f>
         <v>110</v>
       </c>
-      <c r="J77" s="2">
-        <f t="shared" si="10"/>
+      <c r="K77" s="2">
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
-      <c r="K77" s="2">
+      <c r="L77" s="2">
         <f>VLOOKUP(A77,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" si="11"/>
+        <f>E77/5</f>
         <v>21</v>
       </c>
       <c r="N77" s="22">
-        <f t="shared" si="12"/>
+        <f>13*M77-L77-F77</f>
         <v>76</v>
       </c>
       <c r="O77" s="22">
@@ -12241,11 +12246,11 @@
         <v>0</v>
       </c>
       <c r="R77" s="2">
-        <f t="shared" si="14"/>
+        <f>(F77+L77+O77)/M77</f>
         <v>9.3809523809523814</v>
       </c>
       <c r="S77" s="2">
-        <f t="shared" si="15"/>
+        <f>(F77+L77)/M77</f>
         <v>9.3809523809523814</v>
       </c>
       <c r="T77" s="2">
@@ -12261,7 +12266,7 @@
         <v>14.8</v>
       </c>
       <c r="X77" s="2">
-        <f t="shared" si="16"/>
+        <f>O77*G77</f>
         <v>0</v>
       </c>
     </row>
@@ -12290,34 +12295,34 @@
         <f>VLOOKUP(A78,[1]TDSheet!$A:$H,8,0)</f>
         <v>150</v>
       </c>
-      <c r="I78" s="2">
+      <c r="J78" s="2">
         <f>VLOOKUP(A78,[2]TDSheet!$A:$Q,4,0)</f>
         <v>7</v>
       </c>
-      <c r="J78" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="K78" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
         <f>VLOOKUP(A78,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" si="11"/>
+        <f>E78/5</f>
         <v>1.4</v>
       </c>
       <c r="N78" s="22"/>
       <c r="O78" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P78" s="22"/>
       <c r="R78" s="2">
-        <f t="shared" si="14"/>
+        <f>(F78+L78+O78)/M78</f>
         <v>34.285714285714285</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="15"/>
+        <f>(F78+L78)/M78</f>
         <v>34.285714285714285</v>
       </c>
       <c r="T78" s="2">
@@ -12333,7 +12338,7 @@
         <v>0.4</v>
       </c>
       <c r="X78" s="2">
-        <f t="shared" si="16"/>
+        <f>O78*G78</f>
         <v>0</v>
       </c>
     </row>
@@ -12362,34 +12367,34 @@
         <f>VLOOKUP(A79,[1]TDSheet!$A:$H,8,0)</f>
         <v>0</v>
       </c>
-      <c r="I79" s="2">
+      <c r="J79" s="2">
         <f>VLOOKUP(A79,[2]TDSheet!$A:$Q,4,0)</f>
         <v>5.25</v>
       </c>
-      <c r="J79" s="2">
-        <f t="shared" si="10"/>
+      <c r="K79" s="2">
+        <f t="shared" si="3"/>
         <v>0.23000000000000043</v>
       </c>
-      <c r="K79" s="2">
+      <c r="L79" s="2">
         <f>VLOOKUP(A79,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" si="11"/>
+        <f>E79/5</f>
         <v>1.0960000000000001</v>
       </c>
       <c r="N79" s="22"/>
       <c r="O79" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P79" s="22"/>
       <c r="R79" s="2">
-        <f t="shared" si="14"/>
+        <f>(F79+L79+O79)/M79</f>
         <v>-11.297445255474452</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" si="15"/>
+        <f>(F79+L79)/M79</f>
         <v>-11.297445255474452</v>
       </c>
       <c r="T79" s="2">
@@ -12405,7 +12410,7 @@
         <v>1.3804000000000001</v>
       </c>
       <c r="X79" s="2">
-        <f t="shared" si="16"/>
+        <f>O79*G79</f>
         <v>0</v>
       </c>
     </row>
@@ -12436,34 +12441,34 @@
         <f>VLOOKUP(A80,[1]TDSheet!$A:$H,8,0)</f>
         <v>0</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <f>VLOOKUP(A80,[2]TDSheet!$A:$Q,4,0)</f>
         <v>40</v>
       </c>
-      <c r="J80" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="K80" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
         <f>VLOOKUP(A80,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" si="11"/>
+        <f>E80/5</f>
         <v>8</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P80" s="22"/>
       <c r="R80" s="2">
-        <f t="shared" si="14"/>
+        <f>(F80+L80+O80)/M80</f>
         <v>-1</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="15"/>
+        <f>(F80+L80)/M80</f>
         <v>-1</v>
       </c>
       <c r="T80" s="2">
@@ -12479,7 +12484,7 @@
         <v>18</v>
       </c>
       <c r="X80" s="2">
-        <f t="shared" si="16"/>
+        <f>O80*G80</f>
         <v>0</v>
       </c>
     </row>
@@ -12508,34 +12513,34 @@
         <f>VLOOKUP(A81,[1]TDSheet!$A:$H,8,0)</f>
         <v>0</v>
       </c>
-      <c r="I81" s="2">
+      <c r="J81" s="2">
         <f>VLOOKUP(A81,[2]TDSheet!$A:$Q,4,0)</f>
         <v>10</v>
       </c>
-      <c r="J81" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="K81" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
         <f>VLOOKUP(A81,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="11"/>
+        <f>E81/5</f>
         <v>2</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P81" s="22"/>
       <c r="R81" s="2">
-        <f t="shared" si="14"/>
+        <f>(F81+L81+O81)/M81</f>
         <v>-12</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="15"/>
+        <f>(F81+L81)/M81</f>
         <v>-12</v>
       </c>
       <c r="T81" s="2">
@@ -12551,7 +12556,7 @@
         <v>2.8</v>
       </c>
       <c r="X81" s="2">
-        <f t="shared" si="16"/>
+        <f>O81*G81</f>
         <v>0</v>
       </c>
     </row>
@@ -12580,34 +12585,34 @@
         <f>VLOOKUP(A82,[1]TDSheet!$A:$H,8,0)</f>
         <v>0</v>
       </c>
-      <c r="I82" s="2">
+      <c r="J82" s="2">
         <f>VLOOKUP(A82,[2]TDSheet!$A:$Q,4,0)</f>
         <v>18</v>
       </c>
-      <c r="J82" s="2">
-        <f t="shared" si="10"/>
+      <c r="K82" s="2">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="K82" s="2">
+      <c r="L82" s="2">
         <f>VLOOKUP(A82,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="11"/>
+        <f>E82/5</f>
         <v>3.4</v>
       </c>
       <c r="N82" s="22"/>
       <c r="O82" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P82" s="22"/>
       <c r="R82" s="2">
-        <f t="shared" si="14"/>
+        <f>(F82+L82+O82)/M82</f>
         <v>-11.176470588235295</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="15"/>
+        <f>(F82+L82)/M82</f>
         <v>-11.176470588235295</v>
       </c>
       <c r="T82" s="2">
@@ -12623,7 +12628,7 @@
         <v>3.4</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" si="16"/>
+        <f>O82*G82</f>
         <v>0</v>
       </c>
     </row>
@@ -12645,7 +12650,7 @@
         <v>117</v>
       </c>
       <c r="X83" s="2">
-        <f t="shared" si="16"/>
+        <f>O83*G83</f>
         <v>12</v>
       </c>
     </row>
@@ -12657,7 +12662,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O84" s="22">
-        <f t="shared" ref="O84:O89" si="17">P84</f>
+        <f t="shared" ref="O84:O89" si="5">P84</f>
         <v>30</v>
       </c>
       <c r="P84" s="22">
@@ -12667,7 +12672,7 @@
         <v>117</v>
       </c>
       <c r="X84" s="2">
-        <f t="shared" si="16"/>
+        <f>O84*G84</f>
         <v>8.4</v>
       </c>
     </row>
@@ -12679,7 +12684,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O85" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="P85" s="22">
@@ -12689,7 +12694,7 @@
         <v>117</v>
       </c>
       <c r="X85" s="2">
-        <f t="shared" si="16"/>
+        <f>O85*G85</f>
         <v>8.4</v>
       </c>
     </row>
@@ -12701,7 +12706,7 @@
         <v>0.15</v>
       </c>
       <c r="O86" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="P86" s="22">
@@ -12711,7 +12716,7 @@
         <v>117</v>
       </c>
       <c r="X86" s="2">
-        <f t="shared" si="16"/>
+        <f>O86*G86</f>
         <v>15</v>
       </c>
     </row>
@@ -12723,7 +12728,7 @@
         <v>0.1</v>
       </c>
       <c r="O87" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="P87" s="22">
@@ -12733,7 +12738,7 @@
         <v>117</v>
       </c>
       <c r="X87" s="2">
-        <f t="shared" si="16"/>
+        <f>O87*G87</f>
         <v>10</v>
       </c>
     </row>
@@ -12745,7 +12750,7 @@
         <v>0.06</v>
       </c>
       <c r="O88" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="P88" s="22">
@@ -12755,7 +12760,7 @@
         <v>117</v>
       </c>
       <c r="X88" s="2">
-        <f t="shared" si="16"/>
+        <f>O88*G88</f>
         <v>6</v>
       </c>
     </row>
@@ -12767,7 +12772,7 @@
         <v>0.06</v>
       </c>
       <c r="O89" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="P89" s="22">
@@ -12777,7 +12782,7 @@
         <v>117</v>
       </c>
       <c r="X89" s="2">
-        <f t="shared" si="16"/>
+        <f>O89*G89</f>
         <v>6</v>
       </c>
     </row>
